--- a/Projeto/SDP_data.xlsx
+++ b/Projeto/SDP_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mafalda\Documents\GitHub\CIFO_comCarinho\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1736914E-AA45-4EA1-94B3-B5908C10A1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373267A0-C08E-4607-89C7-C29BC6B22273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9C99DE6E-74DD-4AAC-9C22-E2419DE86591}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C99DE6E-74DD-4AAC-9C22-E2419DE86591}"/>
   </bookViews>
   <sheets>
     <sheet name="Commodities list (2)" sheetId="2" r:id="rId1"/>
@@ -48,77 +48,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
   <si>
     <t>Commodity</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>1939 price (cents)</t>
-  </si>
-  <si>
-    <t>Calories (kcal)</t>
-  </si>
-  <si>
-    <t>Protein (g)</t>
-  </si>
-  <si>
-    <t>Calcium (g)</t>
-  </si>
-  <si>
-    <t>Iron (mg)</t>
-  </si>
-  <si>
-    <t>Vitamin A (KIU)</t>
-  </si>
-  <si>
-    <t>Thiamine (mg)</t>
-  </si>
-  <si>
-    <t>Riboflavin (mg)</t>
-  </si>
-  <si>
-    <t>Niacin (mg)</t>
-  </si>
-  <si>
-    <t>Ascorbic Acid (mg)</t>
-  </si>
-  <si>
     <t>Wheat Flour (Enriched)</t>
   </si>
   <si>
-    <t>10 lb.</t>
-  </si>
-  <si>
     <t>Macaroni</t>
   </si>
   <si>
-    <t>1 lb.</t>
-  </si>
-  <si>
     <t>Wheat Cereal (Enriched)</t>
   </si>
   <si>
-    <t>28 oz.</t>
-  </si>
-  <si>
     <t>Corn Flakes</t>
   </si>
   <si>
-    <t>8 oz.</t>
-  </si>
-  <si>
     <t>Corn Meal</t>
   </si>
   <si>
     <t>Hominy Grits</t>
   </si>
   <si>
-    <t>24 oz.</t>
-  </si>
-  <si>
     <t>Rice</t>
   </si>
   <si>
@@ -143,15 +95,9 @@
     <t>Milk</t>
   </si>
   <si>
-    <t>1 qt.</t>
-  </si>
-  <si>
     <t>Evaporated Milk (can)</t>
   </si>
   <si>
-    <t>14.5 oz.</t>
-  </si>
-  <si>
     <t>Butter</t>
   </si>
   <si>
@@ -161,18 +107,12 @@
     <t>Eggs</t>
   </si>
   <si>
-    <t>1 doz.</t>
-  </si>
-  <si>
     <t>Cheese (Cheddar)</t>
   </si>
   <si>
     <t>Cream</t>
   </si>
   <si>
-    <t>1/2 pt.</t>
-  </si>
-  <si>
     <t>Peanut Butter</t>
   </si>
   <si>
@@ -233,9 +173,6 @@
     <t>Salmon, Pink (can)</t>
   </si>
   <si>
-    <t>16 oz.</t>
-  </si>
-  <si>
     <t>Apples</t>
   </si>
   <si>
@@ -257,30 +194,18 @@
     <t>Carrots</t>
   </si>
   <si>
-    <t>1 bunch</t>
-  </si>
-  <si>
     <t>Celery</t>
   </si>
   <si>
-    <t>1 stalk</t>
-  </si>
-  <si>
     <t>Lettuce</t>
   </si>
   <si>
-    <t>1 head</t>
-  </si>
-  <si>
     <t>Onions</t>
   </si>
   <si>
     <t>Potatoes</t>
   </si>
   <si>
-    <t>15 lb.</t>
-  </si>
-  <si>
     <t>Spinach</t>
   </si>
   <si>
@@ -290,9 +215,6 @@
     <t>Peaches (can)</t>
   </si>
   <si>
-    <t>No. 2 1/2</t>
-  </si>
-  <si>
     <t>Pears (can)</t>
   </si>
   <si>
@@ -302,9 +224,6 @@
     <t>Asparagus (can)</t>
   </si>
   <si>
-    <t>No. 2</t>
-  </si>
-  <si>
     <t>Green Beans (can)</t>
   </si>
   <si>
@@ -323,9 +242,6 @@
     <t>Tomato Soup (can)</t>
   </si>
   <si>
-    <t>10 1/2 oz.</t>
-  </si>
-  <si>
     <t>Peaches, Dried</t>
   </si>
   <si>
@@ -335,9 +251,6 @@
     <t>Raisins, Dried</t>
   </si>
   <si>
-    <t>15 oz.</t>
-  </si>
-  <si>
     <t>Peas, Dried</t>
   </si>
   <si>
@@ -353,9 +266,6 @@
     <t>Tea</t>
   </si>
   <si>
-    <t>1/4 lb.</t>
-  </si>
-  <si>
     <t>Cocoa</t>
   </si>
   <si>
@@ -371,20 +281,80 @@
     <t>Molasses</t>
   </si>
   <si>
-    <t>18 oz.</t>
-  </si>
-  <si>
     <t>Strawberry Preserves</t>
+  </si>
+  <si>
+    <t>Calories</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Vitamin A</t>
+  </si>
+  <si>
+    <t>Vitamin B1</t>
+  </si>
+  <si>
+    <t>Vitamin B2</t>
+  </si>
+  <si>
+    <t>Niacin</t>
+  </si>
+  <si>
+    <t>Vitamin C</t>
+  </si>
+  <si>
+    <t>lb.</t>
+  </si>
+  <si>
+    <t>oz.</t>
+  </si>
+  <si>
+    <t>qt.</t>
+  </si>
+  <si>
+    <t>doz.</t>
+  </si>
+  <si>
+    <t>pt.</t>
+  </si>
+  <si>
+    <t>bunch</t>
+  </si>
+  <si>
+    <t>stalk</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -410,9 +380,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,6 +393,7 @@
   <dxfs count="2">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -439,7 +413,7 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{B86E3189-4213-461D-B8D6-7B07932922DA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="13">
+  <queryTableRefresh nextId="14">
     <queryTableFields count="12">
       <queryTableField id="1" name="Commodity" tableColumnId="1"/>
       <queryTableField id="2" name="Unit" tableColumnId="2"/>
@@ -463,17 +437,17 @@
   <autoFilter ref="A1:L78" xr:uid="{958B719F-0071-487B-BBF5-337FB6571E55}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{A4D71195-4A7B-407A-9E44-C1563B9505DC}" uniqueName="1" name="Commodity" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{48176341-4921-4191-9AB9-4731498D83A6}" uniqueName="2" name="Unit" queryTableFieldId="2" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{0731F310-C832-461B-B0FE-92E5621D5AA4}" uniqueName="3" name="1939 price (cents)" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{873C0BE6-D551-463F-AB03-009EE29F0567}" uniqueName="4" name="Calories (kcal)" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{45C87422-6078-486F-B837-B5F7D4A59C10}" uniqueName="5" name="Protein (g)" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{12F49135-DDB2-4E32-80BF-137C037AF395}" uniqueName="6" name="Calcium (g)" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{A8F1743B-2B13-470E-8522-0637E1D965BF}" uniqueName="7" name="Iron (mg)" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{583E60B9-A045-4C05-ABDD-0B3941DE8B74}" uniqueName="8" name="Vitamin A (KIU)" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{B5637352-6B42-453A-B5EF-3E1E78BA19C2}" uniqueName="9" name="Thiamine (mg)" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{54F21479-55A1-473E-B509-ACD7B624DE3A}" uniqueName="10" name="Riboflavin (mg)" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{F224EFC4-6242-4B24-8423-AA59F29F1EC9}" uniqueName="11" name="Niacin (mg)" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{24A69F3F-4B64-4FC6-99B4-DB587B4CA00A}" uniqueName="12" name="Ascorbic Acid (mg)" queryTableFieldId="12"/>
+    <tableColumn id="2" xr3:uid="{48176341-4921-4191-9AB9-4731498D83A6}" uniqueName="2" name="quantity" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{0731F310-C832-461B-B0FE-92E5621D5AA4}" uniqueName="3" name="unit" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{873C0BE6-D551-463F-AB03-009EE29F0567}" uniqueName="4" name="Calories" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{45C87422-6078-486F-B837-B5F7D4A59C10}" uniqueName="5" name="Protein" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{12F49135-DDB2-4E32-80BF-137C037AF395}" uniqueName="6" name="Calcium" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{A8F1743B-2B13-470E-8522-0637E1D965BF}" uniqueName="7" name="Iron" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{583E60B9-A045-4C05-ABDD-0B3941DE8B74}" uniqueName="8" name="Vitamin A" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{B5637352-6B42-453A-B5EF-3E1E78BA19C2}" uniqueName="9" name="Vitamin B1" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{54F21479-55A1-473E-B509-ACD7B624DE3A}" uniqueName="10" name="Vitamin B2" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{F224EFC4-6242-4B24-8423-AA59F29F1EC9}" uniqueName="11" name="Niacin" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{24A69F3F-4B64-4FC6-99B4-DB587B4CA00A}" uniqueName="12" name="Vitamin C" queryTableFieldId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -779,72 +753,72 @@
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L78" sqref="A1:L78"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>36</v>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D2">
         <v>44.7</v>
@@ -874,15 +848,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>14.1</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D3">
         <v>11.6</v>
@@ -912,15 +886,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>24.2</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D4">
         <v>11.8</v>
@@ -950,15 +924,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>7.1</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D5">
         <v>11.4</v>
@@ -988,15 +962,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>4.5999999999999996</v>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D6">
         <v>36</v>
@@ -1026,15 +1000,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>8.5</v>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D7">
         <v>28.6</v>
@@ -1064,15 +1038,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>7.5</v>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D8">
         <v>21.2</v>
@@ -1102,15 +1076,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>7.1</v>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D9">
         <v>25.3</v>
@@ -1140,15 +1114,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>7.9</v>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -1178,15 +1152,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>9.1</v>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D11">
         <v>12.2</v>
@@ -1216,15 +1190,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>9.1</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D12">
         <v>12.4</v>
@@ -1254,15 +1228,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>24.8</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -1292,15 +1266,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>15.1</v>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D14">
         <v>12.5</v>
@@ -1330,15 +1304,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D15">
         <v>6.1</v>
@@ -1368,15 +1342,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16">
-        <v>6.7</v>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D16">
         <v>8.4</v>
@@ -1406,15 +1380,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>30.8</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D17">
         <v>10.8</v>
@@ -1444,15 +1418,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>16.100000000000001</v>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D18">
         <v>20.6</v>
@@ -1482,15 +1456,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
-        <v>32.6</v>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D19">
         <v>2.9</v>
@@ -1520,15 +1494,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>24.2</v>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D20">
         <v>7.4</v>
@@ -1558,15 +1532,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21">
-        <v>14.1</v>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D21">
         <v>3.5</v>
@@ -1596,15 +1570,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>17.899999999999999</v>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D22">
         <v>15.7</v>
@@ -1634,15 +1608,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23">
-        <v>16.7</v>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D23">
         <v>8.6</v>
@@ -1672,15 +1646,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>20.3</v>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D24">
         <v>20.100000000000001</v>
@@ -1710,15 +1684,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25">
-        <v>9.8000000000000007</v>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D25">
         <v>41.7</v>
@@ -1748,15 +1722,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
-        <v>39.6</v>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D26">
         <v>2.9</v>
@@ -1786,15 +1760,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27">
-        <v>36.4</v>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D27">
         <v>2.2000000000000002</v>
@@ -1824,15 +1798,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28">
-        <v>29.2</v>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D28">
         <v>3.4</v>
@@ -1862,15 +1836,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29">
-        <v>22.6</v>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D29">
         <v>3.6</v>
@@ -1900,15 +1874,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
-        <v>14.6</v>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D30">
         <v>8.5</v>
@@ -1938,15 +1912,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31">
-        <v>26.8</v>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D31">
         <v>2.2000000000000002</v>
@@ -1976,15 +1950,15 @@
         <v>525</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32">
-        <v>27.6</v>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D32">
         <v>3.1</v>
@@ -2014,15 +1988,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>36.6</v>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D33">
         <v>3.3</v>
@@ -2052,15 +2026,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34">
-        <v>30.7</v>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D34">
         <v>3.5</v>
@@ -2090,15 +2064,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35">
-        <v>24.2</v>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D35">
         <v>4.4000000000000004</v>
@@ -2128,15 +2102,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>25.6</v>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D36">
         <v>10.4</v>
@@ -2166,15 +2140,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37">
-        <v>27.4</v>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D37">
         <v>6.7</v>
@@ -2204,15 +2178,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38">
-        <v>16</v>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D38">
         <v>18.8</v>
@@ -2242,15 +2216,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39">
-        <v>30.3</v>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D39">
         <v>1.8</v>
@@ -2280,15 +2254,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40">
-        <v>42.3</v>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D40">
         <v>1.7</v>
@@ -2318,15 +2292,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41">
-        <v>13</v>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D41">
         <v>5.8</v>
@@ -2356,15 +2330,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42">
-        <v>4.4000000000000004</v>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D42">
         <v>5.8</v>
@@ -2394,15 +2368,15 @@
         <v>544</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43">
-        <v>6.1</v>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D43">
         <v>4.9000000000000004</v>
@@ -2432,15 +2406,15 @@
         <v>498</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44">
-        <v>26</v>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2470,15 +2444,15 @@
         <v>952</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45">
-        <v>30.9</v>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D45">
         <v>2.2000000000000002</v>
@@ -2508,15 +2482,15 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46">
-        <v>7.1</v>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D46">
         <v>2.4</v>
@@ -2546,15 +2520,15 @@
         <v>862</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47">
-        <v>3.7</v>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D47">
         <v>2.6</v>
@@ -2584,15 +2558,15 @@
         <v>5369</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48">
-        <v>4.7</v>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D48">
         <v>2.7</v>
@@ -2622,15 +2596,15 @@
         <v>608</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49">
-        <v>7.3</v>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D49">
         <v>0.9</v>
@@ -2660,15 +2634,15 @@
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50">
-        <v>8.1999999999999993</v>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D50">
         <v>0.4</v>
@@ -2698,15 +2672,15 @@
         <v>449</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51">
-        <v>3.6</v>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D51">
         <v>5.8</v>
@@ -2736,15 +2710,15 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52">
-        <v>34</v>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>15</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D52">
         <v>14.3</v>
@@ -2774,15 +2748,15 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53">
-        <v>8.1</v>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D53">
         <v>1.1000000000000001</v>
@@ -2812,15 +2786,15 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54">
-        <v>5.0999999999999996</v>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D54">
         <v>9.6</v>
@@ -2850,15 +2824,12 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55">
-        <v>16.8</v>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2.5</v>
       </c>
       <c r="D55">
         <v>3.7</v>
@@ -2888,15 +2859,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56">
-        <v>20.399999999999999</v>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2.5</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -2926,15 +2894,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57">
-        <v>21.3</v>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2.5</v>
       </c>
       <c r="D57">
         <v>2.4</v>
@@ -2964,15 +2929,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58">
-        <v>27.7</v>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2</v>
       </c>
       <c r="D58">
         <v>0.4</v>
@@ -3002,15 +2964,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59">
-        <v>10</v>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3040,15 +2999,15 @@
         <v>431</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60">
-        <v>7.1</v>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>16</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D60">
         <v>7.5</v>
@@ -3078,15 +3037,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61">
-        <v>10.4</v>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2</v>
       </c>
       <c r="D61">
         <v>5.2</v>
@@ -3116,15 +3072,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62">
-        <v>13.8</v>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2</v>
       </c>
       <c r="D62">
         <v>2.2999999999999998</v>
@@ -3154,15 +3107,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63">
-        <v>8.6</v>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2</v>
       </c>
       <c r="D63">
         <v>1.3</v>
@@ -3192,15 +3142,15 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64">
-        <v>7.6</v>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D64">
         <v>1.6</v>
@@ -3230,15 +3180,15 @@
         <v>862</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65">
-        <v>15.7</v>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D65">
         <v>8.5</v>
@@ -3268,15 +3218,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66">
-        <v>9</v>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D66">
         <v>12.8</v>
@@ -3306,15 +3256,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67">
-        <v>9.4</v>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D67">
         <v>13.5</v>
@@ -3344,15 +3294,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68">
-        <v>7.9</v>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D68">
         <v>20</v>
@@ -3382,15 +3332,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69">
-        <v>8.9</v>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D69">
         <v>17.399999999999999</v>
@@ -3420,15 +3370,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70">
-        <v>5.9</v>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D70">
         <v>26.9</v>
@@ -3458,15 +3408,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71">
-        <v>22.4</v>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3496,15 +3446,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72">
-        <v>17.399999999999999</v>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3534,15 +3484,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73">
-        <v>8.6</v>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D73">
         <v>8.6999999999999993</v>
@@ -3572,15 +3522,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74">
-        <v>16.2</v>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
+        <v>8</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D74">
         <v>8</v>
@@ -3610,15 +3560,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75">
-        <v>51.7</v>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D75">
         <v>34.9</v>
@@ -3648,15 +3598,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76">
-        <v>13.7</v>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <v>24</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D76">
         <v>14.7</v>
@@ -3686,15 +3636,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77">
-        <v>13.6</v>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2">
+        <v>18</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D77">
         <v>9</v>
@@ -3724,15 +3674,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78">
-        <v>20.5</v>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D78">
         <v>6.4</v>
@@ -3763,9 +3713,11 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3778,7 +3730,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Projeto/SDP_data.xlsx
+++ b/Projeto/SDP_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mafalda\Documents\GitHub\CIFO_comCarinho\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373267A0-C08E-4607-89C7-C29BC6B22273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4922C6F4-794E-48DB-B495-727D63E8CA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C99DE6E-74DD-4AAC-9C22-E2419DE86591}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Commodities list (2)'!$A$1:$L$78</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Commodities list (2)'!$A$1:$M$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
   <si>
     <t>Commodity</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -380,17 +383,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -413,11 +420,12 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{B86E3189-4213-461D-B8D6-7B07932922DA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="14">
-    <queryTableFields count="12">
+  <queryTableRefresh nextId="15">
+    <queryTableFields count="13">
       <queryTableField id="1" name="Commodity" tableColumnId="1"/>
       <queryTableField id="2" name="Unit" tableColumnId="2"/>
       <queryTableField id="3" name="1939 price (cents)" tableColumnId="3"/>
+      <queryTableField id="14" dataBound="0" tableColumnId="13"/>
       <queryTableField id="4" name="Calories (kcal)" tableColumnId="4"/>
       <queryTableField id="5" name="Protein (g)" tableColumnId="5"/>
       <queryTableField id="6" name="Calcium (g)" tableColumnId="6"/>
@@ -433,12 +441,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{958B719F-0071-487B-BBF5-337FB6571E55}" name="Table_Commodities_list__2" displayName="Table_Commodities_list__2" ref="A1:L78" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L78" xr:uid="{958B719F-0071-487B-BBF5-337FB6571E55}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A4D71195-4A7B-407A-9E44-C1563B9505DC}" uniqueName="1" name="Commodity" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{48176341-4921-4191-9AB9-4731498D83A6}" uniqueName="2" name="quantity" queryTableFieldId="2" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{958B719F-0071-487B-BBF5-337FB6571E55}" name="Table_Commodities_list__2" displayName="Table_Commodities_list__2" ref="A1:M78" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:M78" xr:uid="{958B719F-0071-487B-BBF5-337FB6571E55}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{A4D71195-4A7B-407A-9E44-C1563B9505DC}" uniqueName="1" name="Commodity" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{48176341-4921-4191-9AB9-4731498D83A6}" uniqueName="2" name="quantity" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{0731F310-C832-461B-B0FE-92E5621D5AA4}" uniqueName="3" name="unit" queryTableFieldId="3"/>
+    <tableColumn id="13" xr3:uid="{08430589-AF79-43EE-B5BA-A699C8146062}" uniqueName="13" name="price" queryTableFieldId="14" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{873C0BE6-D551-463F-AB03-009EE29F0567}" uniqueName="4" name="Calories" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{45C87422-6078-486F-B837-B5F7D4A59C10}" uniqueName="5" name="Protein" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{12F49135-DDB2-4E32-80BF-137C037AF395}" uniqueName="6" name="Calcium" queryTableFieldId="6"/>
@@ -750,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBE7112-8F74-4367-8E6C-AE753425B506}">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,18 +770,19 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -783,34 +793,37 @@
         <v>96</v>
       </c>
       <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -820,35 +833,38 @@
       <c r="C2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
+        <v>36</v>
+      </c>
+      <c r="E2">
         <v>44.7</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1411</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>365</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>55.4</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>33.299999999999997</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>441</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -858,35 +874,38 @@
       <c r="C3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="E3">
         <v>11.6</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>418</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.7</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>54</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>3.2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.9</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>68</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -896,35 +915,38 @@
       <c r="C4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="E4">
         <v>11.8</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>377</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>14.4</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>175</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>14.4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>114</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -934,35 +956,38 @@
       <c r="C5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="E5">
         <v>11.4</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>252</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>56</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>13.5</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>68</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -972,35 +997,38 @@
       <c r="C6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E6">
         <v>36</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>897</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.7</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>99</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>30.9</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>17.399999999999999</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>7.9</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>106</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1010,35 +1038,38 @@
       <c r="C7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E7">
         <v>28.6</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>680</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.8</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>80</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>10.6</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1.6</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>110</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1048,35 +1079,38 @@
       <c r="C8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="E8">
         <v>21.2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>460</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>41</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>2</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>4.8</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>60</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1086,35 +1120,38 @@
       <c r="C9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="E9">
         <v>25.3</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>907</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>341</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>37.1</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>8.9</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>64</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1124,35 +1161,38 @@
       <c r="C10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="E10">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>488</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2.5</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>115</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>13.8</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>8.5</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>126</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1162,35 +1202,38 @@
       <c r="C11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="E11">
         <v>12.2</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>484</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2.7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>125</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>13.9</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>6.4</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>160</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1200,35 +1243,38 @@
       <c r="C12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="E12">
         <v>12.4</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>439</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>82</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>9.9</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>66</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1238,35 +1284,38 @@
       <c r="C13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="E13">
         <v>8</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>130</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.4</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>31</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>18.899999999999999</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2.8</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>17</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1276,21 +1325,21 @@
       <c r="C14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="E14">
         <v>12.5</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>288</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.5</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>50</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
         <v>0</v>
       </c>
@@ -1303,8 +1352,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1314,35 +1366,38 @@
       <c r="C15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
+        <v>11</v>
+      </c>
+      <c r="E15">
         <v>6.1</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>310</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>10.5</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>18</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>16.8</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>16</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>7</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1352,35 +1407,38 @@
       <c r="C16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="E16">
         <v>8.4</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>422</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>15.1</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>9</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>26</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>23.5</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>11</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1390,35 +1448,38 @@
       <c r="C17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
+        <v>30.8</v>
+      </c>
+      <c r="E17">
         <v>10.8</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.2</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>44.2</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>0.2</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1428,35 +1489,38 @@
       <c r="C18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E18">
         <v>20.6</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>17</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.6</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>6</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>55.8</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.2</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1466,35 +1530,38 @@
       <c r="C19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
+        <v>32.6</v>
+      </c>
+      <c r="E19">
         <v>2.9</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>238</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>52</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>18.600000000000001</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2.8</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>6.5</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1504,35 +1571,38 @@
       <c r="C20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="E20">
         <v>7.4</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>448</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>16.399999999999999</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>19</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>28.1</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.8</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>10.3</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>4</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1542,35 +1612,38 @@
       <c r="C21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="E21">
         <v>3.5</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>49</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.7</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>3</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>16.899999999999999</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.6</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2.5</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1580,35 +1653,38 @@
       <c r="C22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E22">
         <v>15.7</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>661</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>48</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>9.6</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>8.1</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>471</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1618,35 +1694,38 @@
       <c r="C23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="E23">
         <v>8.6</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>18</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.2</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>8</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2.7</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.4</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.5</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1656,12 +1735,12 @@
       <c r="C24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="E24">
         <v>20.100000000000001</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
@@ -1683,8 +1762,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1694,12 +1776,12 @@
       <c r="C25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E25">
         <v>41.7</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
         <v>0</v>
       </c>
@@ -1707,22 +1789,25 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>0.2</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>0.5</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>5</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1732,35 +1817,38 @@
       <c r="C26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
+        <v>39.6</v>
+      </c>
+      <c r="E26">
         <v>2.9</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>166</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.1</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>34</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.2</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2.1</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2.9</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>69</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1770,35 +1858,38 @@
       <c r="C27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
+        <v>36.4</v>
+      </c>
+      <c r="E27">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>214</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.1</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>32</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.4</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2.5</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>2.4</v>
       </c>
-      <c r="K27">
-        <v>87</v>
-      </c>
       <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1808,35 +1899,38 @@
       <c r="C28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="E28">
         <v>3.4</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>213</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.1</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>33</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>2</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
       <c r="L28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1846,35 +1940,38 @@
       <c r="C29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
+        <v>22.6</v>
+      </c>
+      <c r="E29">
         <v>3.6</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>309</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.2</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>46</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.4</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
       <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
         <v>4</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>120</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1884,35 +1981,38 @@
       <c r="C30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="E30">
         <v>8.5</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>404</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.2</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>62</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>0.9</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1922,35 +2022,38 @@
       <c r="C31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
+        <v>26.8</v>
+      </c>
+      <c r="E31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>333</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.2</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>139</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>169.2</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>6.4</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>50.8</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>316</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>525</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1960,35 +2063,38 @@
       <c r="C32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
+        <v>27.6</v>
+      </c>
+      <c r="E32">
         <v>3.1</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>245</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.1</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>20</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
       <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>2.8</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>3.9</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>86</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1998,35 +2104,38 @@
       <c r="C33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
+        <v>36.6</v>
+      </c>
+      <c r="E33">
         <v>3.3</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>140</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.1</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>15</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>1.7</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>2.7</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>54</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2036,35 +2145,38 @@
       <c r="C34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
+        <v>30.7</v>
+      </c>
+      <c r="E34">
         <v>3.5</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>196</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.2</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>30</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>17.399999999999999</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>2.7</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>60</v>
       </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2074,35 +2186,38 @@
       <c r="C35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="E35">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>249</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.3</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>37</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>18.2</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>3.6</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>79</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2112,35 +2227,38 @@
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
+        <v>25.6</v>
+      </c>
+      <c r="E36">
         <v>10.4</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>152</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.2</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>23</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="I36">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>1.8</v>
       </c>
       <c r="K36">
+        <v>1.8</v>
+      </c>
+      <c r="L36">
         <v>71</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2150,35 +2268,38 @@
       <c r="C37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
+        <v>27.4</v>
+      </c>
+      <c r="E37">
         <v>6.7</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>212</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.2</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>31</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>9.9</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>3.3</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>50</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2188,35 +2309,38 @@
       <c r="C38" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
+        <v>16</v>
+      </c>
+      <c r="E38">
         <v>18.8</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>164</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.1</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>26</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>1.4</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>1.8</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
       <c r="L38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2226,35 +2350,38 @@
       <c r="C39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
+        <v>30.3</v>
+      </c>
+      <c r="E39">
         <v>1.8</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>184</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.1</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>30</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.1</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.9</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>1.8</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>68</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2264,35 +2391,38 @@
       <c r="C40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
+        <v>42.3</v>
+      </c>
+      <c r="E40">
         <v>1.7</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>156</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.1</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>24</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
       <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>1.4</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>2.4</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>57</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2302,35 +2432,38 @@
       <c r="C41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
+        <v>13</v>
+      </c>
+      <c r="E41">
         <v>5.8</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>705</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>6.8</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>45</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>3.5</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
       <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>209</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2340,35 +2473,38 @@
       <c r="C42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E42">
         <v>5.8</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>27</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.5</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>36</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>7.3</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>3.6</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>2.7</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>5</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>544</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2378,35 +2514,38 @@
       <c r="C43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="E43">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>60</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.4</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>30</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>17.399999999999999</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>2.5</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>3.5</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>28</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>498</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2416,35 +2555,38 @@
       <c r="C44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D44">
-        <v>1</v>
+      <c r="D44" s="3">
+        <v>26</v>
       </c>
       <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
         <v>21</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.5</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>14</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
       <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>0.5</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
       <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>4</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>952</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2454,35 +2596,38 @@
       <c r="C45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
+        <v>30.9</v>
+      </c>
+      <c r="E45">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>40</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>18</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>11.1</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>3.6</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>1.3</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>10</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>1998</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2492,35 +2637,38 @@
       <c r="C46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="E46">
         <v>2.4</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>138</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>3.7</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>80</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>69</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>4.3</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>5.8</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>37</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>862</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2530,35 +2678,38 @@
       <c r="C47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="E47">
         <v>2.6</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>125</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>4</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>36</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>7.2</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>9</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>4.5</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>26</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>5369</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2568,35 +2719,38 @@
       <c r="C48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E48">
         <v>2.7</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>73</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>2.8</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>43</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>188.5</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>6.1</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>4.3</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>89</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>608</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2606,35 +2760,38 @@
       <c r="C49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="E49">
         <v>0.9</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>51</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>3</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>23</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>0.9</v>
-      </c>
-      <c r="I49">
-        <v>1.4</v>
       </c>
       <c r="J49">
         <v>1.4</v>
       </c>
       <c r="K49">
+        <v>1.4</v>
+      </c>
+      <c r="L49">
         <v>9</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2644,35 +2801,38 @@
       <c r="C50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E50">
         <v>0.4</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>27</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>22</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>112.4</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>1.8</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>3.4</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>11</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>449</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2682,35 +2842,38 @@
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="E51">
         <v>5.8</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>166</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>3.8</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>59</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>16.600000000000001</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>4.7</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>5.9</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>21</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>1184</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2720,35 +2883,38 @@
       <c r="C52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
+        <v>34</v>
+      </c>
+      <c r="E52">
         <v>14.3</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>336</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>1.8</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>118</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>6.7</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>29.4</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>7.1</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>198</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>2522</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2758,35 +2924,38 @@
       <c r="C53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="E53">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>106</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
       <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>138</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>918.4</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>5.7</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>13.8</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>33</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>2755</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2796,90 +2965,96 @@
       <c r="C54" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E54">
         <v>9.6</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>138</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>2.7</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>54</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>290.7</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>8.4</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>5.4</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>83</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>1912</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>2.5</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E55">
         <v>3.7</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>20</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>0.4</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>10</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>21.5</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0.5</v>
       </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
       <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
         <v>31</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>2.5</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E56">
         <v>3</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>8</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>0.3</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>8</v>
-      </c>
-      <c r="H56">
-        <v>0.8</v>
       </c>
       <c r="I56">
         <v>0.8</v>
@@ -2888,118 +3063,130 @@
         <v>0.8</v>
       </c>
       <c r="K56">
+        <v>0.8</v>
+      </c>
+      <c r="L56">
         <v>5</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>2.5</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
+        <v>21.3</v>
+      </c>
+      <c r="E57">
         <v>2.4</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>16</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>0.4</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>8</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>2</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>2.8</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>0.8</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>7</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>399</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>2</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="E58">
         <v>0.4</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>33</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>0.3</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>12</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>16.3</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>1.4</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>2.1</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>17</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>272</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
       </c>
-      <c r="D59">
-        <v>1</v>
+      <c r="D59" s="3">
+        <v>10</v>
       </c>
       <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
         <v>54</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>2</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>65</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>53.9</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>1.6</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>4.3</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>32</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>431</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3009,140 +3196,152 @@
       <c r="C60" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="E60">
         <v>7.5</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>364</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>4</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>134</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>3.5</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>7.7</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>56</v>
       </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="E61">
         <v>5.2</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>136</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>0.2</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>16</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>12</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>1.6</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>2.7</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>42</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>2</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="E62">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>136</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>0.6</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>45</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>34.9</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>2.5</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>37</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>370</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>2</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="E63">
         <v>1.3</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>63</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>0.7</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>38</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>53.2</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>3.4</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>2.5</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>36</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>1253</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3152,35 +3351,38 @@
       <c r="C64" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="E64">
         <v>1.6</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>71</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>0.6</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>43</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>57.9</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>3.5</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>2.4</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>67</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>862</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3190,35 +3392,38 @@
       <c r="C65" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="E65">
         <v>8.5</v>
       </c>
-      <c r="E65">
-        <v>87</v>
-      </c>
       <c r="F65">
+        <v>87</v>
+      </c>
+      <c r="G65">
         <v>1.7</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>173</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>86.8</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>1.2</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>4.3</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>55</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3228,35 +3433,38 @@
       <c r="C66" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
+        <v>9</v>
+      </c>
+      <c r="E66">
         <v>12.8</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>99</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>2.5</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>154</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>85.7</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>3.9</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>4.3</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>65</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3266,35 +3474,38 @@
       <c r="C67" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="E67">
         <v>13.5</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>104</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>2.5</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>136</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>4.5</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>6.3</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>1.4</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>24</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3304,35 +3515,38 @@
       <c r="C68" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="E68">
         <v>20</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>1367</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>4.2</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>345</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>2.9</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>28.7</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>18.399999999999999</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>162</v>
       </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3342,35 +3556,38 @@
       <c r="C69" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="E69">
         <v>17.399999999999999</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>1055</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>3.7</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>459</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>26.9</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>38.200000000000003</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>93</v>
       </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3380,35 +3597,38 @@
       <c r="C70" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="E70">
         <v>26.9</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>1691</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>11.4</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>792</v>
       </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
       <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
         <v>38.4</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>24.6</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>217</v>
       </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3418,8 +3638,8 @@
       <c r="C71" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D71">
-        <v>0</v>
+      <c r="D71" s="3">
+        <v>22.4</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3434,19 +3654,22 @@
         <v>0</v>
       </c>
       <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
         <v>4</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>50</v>
       </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3456,8 +3679,8 @@
       <c r="C72" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D72">
-        <v>0</v>
+      <c r="D72" s="3">
+        <v>17.399999999999999</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3475,16 +3698,19 @@
         <v>0</v>
       </c>
       <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>42</v>
       </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3494,35 +3720,38 @@
       <c r="C73" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="E73">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>237</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>3</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>72</v>
       </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
       <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
         <v>2</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>11.9</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>40</v>
       </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3532,35 +3761,38 @@
       <c r="C74" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="E74">
         <v>8</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>77</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>1.3</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>39</v>
       </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
       <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
         <v>0.9</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>3.4</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>14</v>
       </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3570,12 +3802,12 @@
       <c r="C75" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
+        <v>51.7</v>
+      </c>
+      <c r="E75">
         <v>34.9</v>
       </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
       <c r="F75">
         <v>0</v>
       </c>
@@ -3597,8 +3829,11 @@
       <c r="L75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3608,21 +3843,21 @@
       <c r="C76" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="E76">
         <v>14.7</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
       <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
         <v>0.5</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>74</v>
       </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
       <c r="I76">
         <v>0</v>
       </c>
@@ -3630,13 +3865,16 @@
         <v>0</v>
       </c>
       <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
         <v>5</v>
       </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3646,35 +3884,38 @@
       <c r="C77" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="E77">
         <v>9</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
       <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
         <v>10.3</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>244</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
       <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
         <v>1.9</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>7.5</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>146</v>
       </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3684,31 +3925,34 @@
       <c r="C78" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="E78">
         <v>6.4</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>11</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>0.4</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>7</v>
-      </c>
-      <c r="H78">
-        <v>0.2</v>
       </c>
       <c r="I78">
         <v>0.2</v>
       </c>
       <c r="J78">
+        <v>0.2</v>
+      </c>
+      <c r="K78">
         <v>0.4</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>3</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>0</v>
       </c>
     </row>
